--- a/data/B/result2.xlsx
+++ b/data/B/result2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A501DB5-F268-4738-B5C1-FA24EFD6D948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,11 +383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -445,112 +446,240 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="C3" s="1">
+        <v>415.69</v>
+      </c>
+      <c r="D3" s="1">
+        <v>466.09</v>
+      </c>
+      <c r="E3" s="1">
+        <v>516.49</v>
+      </c>
+      <c r="F3" s="1">
+        <v>566.89</v>
+      </c>
+      <c r="G3" s="1">
+        <v>617.29</v>
+      </c>
+      <c r="H3" s="1">
+        <v>667.69</v>
+      </c>
+      <c r="I3" s="1">
+        <v>718.09</v>
+      </c>
+      <c r="J3" s="1">
+        <v>768.48</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>45</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="C4" s="1">
+        <v>422.85</v>
+      </c>
+      <c r="D4" s="1">
+        <v>459.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>459.35</v>
+      </c>
+      <c r="F4" s="1">
+        <v>531.6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>567.85</v>
+      </c>
+      <c r="H4" s="1">
+        <v>604.1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>640.35</v>
+      </c>
+      <c r="J4" s="1">
+        <v>676.6</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>90</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="C5" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="D5" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="E5" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="F5" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="G5" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="H5" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="I5" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="J5" s="1">
+        <v>416.55</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>135</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="C6" s="1">
+        <v>422.85</v>
+      </c>
+      <c r="D6" s="1">
+        <v>386.59</v>
+      </c>
+      <c r="E6" s="1">
+        <v>350.34</v>
+      </c>
+      <c r="F6" s="1">
+        <v>314.08999999999997</v>
+      </c>
+      <c r="G6" s="1">
+        <v>277.83999999999997</v>
+      </c>
+      <c r="H6" s="1">
+        <v>241.59</v>
+      </c>
+      <c r="I6" s="1">
+        <v>205.34</v>
+      </c>
+      <c r="J6" s="1">
+        <v>169.09</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>180</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="C7" s="1">
+        <v>415.69</v>
+      </c>
+      <c r="D7" s="1">
+        <v>365.29</v>
+      </c>
+      <c r="E7" s="1">
+        <v>314.89</v>
+      </c>
+      <c r="F7" s="1">
+        <v>264.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>214.1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>113.3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>62.9</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>225</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="C8" s="1">
+        <v>409.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>374.4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>339.29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>304.18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>269.08</v>
+      </c>
+      <c r="H8" s="1">
+        <v>233.97</v>
+      </c>
+      <c r="I8" s="1">
+        <v>198.86</v>
+      </c>
+      <c r="J8" s="1">
+        <v>163.76</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>270</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="C9" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="E9" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="F9" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="G9" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="H9" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="I9" s="1">
+        <v>416.55</v>
+      </c>
+      <c r="J9" s="1">
+        <v>416.55</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>315</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="C10" s="1">
+        <v>409.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>444.61</v>
+      </c>
+      <c r="E10" s="1">
+        <v>479.72</v>
+      </c>
+      <c r="F10" s="1">
+        <v>514.82000000000005</v>
+      </c>
+      <c r="G10" s="1">
+        <v>549.92999999999995</v>
+      </c>
+      <c r="H10" s="1">
+        <v>585.04</v>
+      </c>
+      <c r="I10" s="1">
+        <v>620.14</v>
+      </c>
+      <c r="J10" s="1">
+        <v>655.25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
